--- a/fabric/aci-fabric-deploy-Input-Spreadsheet.xlsx
+++ b/fabric/aci-fabric-deploy-Input-Spreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\Terraform\aci\base-configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\fabric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD6433E-4684-4E3B-89CC-2317396C39F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50402BBD-EC76-4010-89C2-B284FD3D257F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="246">
   <si>
     <t>Type</t>
   </si>
@@ -868,9 +868,6 @@
     <t>198.18.2.101/24</t>
   </si>
   <si>
-    <t>198.18.2.11</t>
-  </si>
-  <si>
     <t>198.18.1.51</t>
   </si>
   <si>
@@ -944,6 +941,15 @@
   </si>
   <si>
     <t>The Encryption Key is used to encrypt the backup files.  The Backup Hour and Minute are used to create a triggered schedule once per day for configuration backups.  Make sure to select either password or ssh-key based authentication.  If it is ssh-key you need to provide the ssh-private-key and passphrase that you have created using some type of ssh-key generation utility like ssh-keygen.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>198.18.2.11/24</t>
+  </si>
+  <si>
+    <t>Inband IPv4/Prefix</t>
   </si>
 </sst>
 </file>
@@ -1772,93 +1778,6 @@
     <xf numFmtId="49" fontId="20" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="34" borderId="22" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="34" borderId="22" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="36" borderId="8" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1874,11 +1793,98 @@
     <xf numFmtId="49" fontId="20" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="36" borderId="8" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="34" borderId="22" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="22" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2239,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,21 +2271,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2320,97 +2326,97 @@
       <c r="M3" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
+      <c r="A5" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="A6" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>112</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="14">
         <v>0</v>
@@ -2419,65 +2425,67 @@
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="I8" s="14">
         <v>22</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="13"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="36"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2801,21 +2809,21 @@
       <c r="M26" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -2958,38 +2966,38 @@
       <c r="M36" s="13"/>
     </row>
     <row r="38" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
@@ -3005,7 +3013,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>86</v>
@@ -3040,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>213</v>
@@ -3152,21 +3160,21 @@
       <c r="M47" s="13"/>
     </row>
     <row r="49" spans="1:13" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
@@ -3207,38 +3215,38 @@
       <c r="M51" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
@@ -3298,21 +3306,21 @@
       <c r="M57" s="11"/>
     </row>
     <row r="59" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
@@ -3353,38 +3361,38 @@
       <c r="M61" s="13"/>
     </row>
     <row r="63" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
     </row>
     <row r="65" spans="1:16" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -3412,7 +3420,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>23</v>
@@ -3433,7 +3441,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>24</v>
@@ -3450,44 +3458,44 @@
       <c r="M67" s="11"/>
     </row>
     <row r="69" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
     </row>
     <row r="70" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="1:16" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
@@ -3502,18 +3510,18 @@
       <c r="D71" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20" t="s">
+      <c r="F71" s="47"/>
+      <c r="G71" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="20" t="s">
+      <c r="H71" s="47"/>
+      <c r="I71" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="J71" s="21"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="8" t="s">
         <v>143</v>
       </c>
@@ -3546,18 +3554,18 @@
       <c r="D72" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="F72" s="36"/>
-      <c r="G72" s="22" t="s">
+      <c r="F72" s="25"/>
+      <c r="G72" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="22" t="s">
+      <c r="H72" s="49"/>
+      <c r="I72" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="J72" s="23"/>
+      <c r="J72" s="49"/>
       <c r="K72" s="13" t="s">
         <v>207</v>
       </c>
@@ -3579,21 +3587,21 @@
     </row>
     <row r="73" spans="1:16" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:16" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
@@ -3623,7 +3631,7 @@
         <v>27</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>130</v>
@@ -3646,7 +3654,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>131</v>
@@ -3665,34 +3673,34 @@
       <c r="M77" s="11"/>
     </row>
     <row r="79" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:16" s="3" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="24" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E80" s="26"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -3706,14 +3714,14 @@
       <c r="A81" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="31" t="s">
+      <c r="C81" s="38"/>
+      <c r="D81" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="32"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="13"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -3727,14 +3735,14 @@
       <c r="A82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="33" t="s">
+      <c r="C82" s="52"/>
+      <c r="D82" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="34"/>
+      <c r="E82" s="54"/>
       <c r="F82" s="11"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -3745,21 +3753,21 @@
       <c r="M82" s="11"/>
     </row>
     <row r="84" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
@@ -3792,7 +3800,7 @@
         <v>32</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>20</v>
@@ -3815,7 +3823,7 @@
         <v>33</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>20</v>
@@ -3831,35 +3839,35 @@
       <c r="M87" s="11"/>
     </row>
     <row r="89" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="24" t="s">
+      <c r="C90" s="41"/>
+      <c r="D90" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="36"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -3872,15 +3880,15 @@
       <c r="A91" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="31" t="s">
+      <c r="C91" s="38"/>
+      <c r="D91" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="32"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="13"/>
@@ -3893,38 +3901,38 @@
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
     </row>
     <row r="94" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
     </row>
     <row r="95" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
@@ -3933,11 +3941,11 @@
       <c r="B95" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -3954,11 +3962,11 @@
       <c r="B96" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="37" t="s">
         <v>196</v>
       </c>
       <c r="D96" s="45"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="13"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
@@ -3975,9 +3983,9 @@
       <c r="B97" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="29"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -3989,38 +3997,38 @@
     </row>
     <row r="98" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
     </row>
     <row r="100" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="42"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
     </row>
     <row r="101" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
@@ -4056,7 +4064,7 @@
         <v>41</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="14">
         <v>162</v>
@@ -4085,7 +4093,7 @@
         <v>41</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" s="12">
         <v>162</v>
@@ -4111,38 +4119,38 @@
     </row>
     <row r="104" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
     </row>
     <row r="106" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="42"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="31"/>
     </row>
     <row r="107" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
@@ -4252,21 +4260,21 @@
     </row>
     <row r="111" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
@@ -4308,7 +4316,7 @@
         <v>62</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C114" s="14">
         <v>514</v>
@@ -4340,72 +4348,72 @@
     </row>
     <row r="115" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
-      <c r="I116" s="30"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
     </row>
     <row r="119" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
     </row>
     <row r="120" spans="1:13" s="4" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
@@ -4448,7 +4456,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" s="14">
         <v>1812</v>
@@ -4481,7 +4489,7 @@
         <v>71</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" s="12">
         <v>1812</v>
@@ -4508,72 +4516,72 @@
     </row>
     <row r="123" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="30"/>
-      <c r="J124" s="30"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
     </row>
     <row r="125" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34"/>
     </row>
     <row r="127" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="46"/>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32"/>
     </row>
     <row r="128" spans="1:13" s="4" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
@@ -4616,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D129" s="14">
         <v>49</v>
@@ -4649,7 +4657,7 @@
         <v>74</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D130" s="12">
         <v>49</v>
@@ -4675,55 +4683,55 @@
       <c r="M130" s="11"/>
     </row>
     <row r="132" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="37"/>
-      <c r="L132" s="37"/>
-      <c r="M132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
     </row>
     <row r="133" spans="1:13" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B133" s="38"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
     </row>
     <row r="134" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
-      <c r="J134" s="39"/>
-      <c r="K134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="34"/>
     </row>
     <row r="135" spans="1:13" s="4" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
@@ -4794,18 +4802,37 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="A89:M89"/>
+    <mergeCell ref="A74:M74"/>
+    <mergeCell ref="A79:M79"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A132:M132"/>
+    <mergeCell ref="A133:M133"/>
+    <mergeCell ref="A134:M134"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A94:M94"/>
+    <mergeCell ref="A99:M99"/>
+    <mergeCell ref="A105:M105"/>
+    <mergeCell ref="A106:M106"/>
+    <mergeCell ref="A100:M100"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="A125:M125"/>
+    <mergeCell ref="A127:M127"/>
+    <mergeCell ref="A126:M126"/>
     <mergeCell ref="A119:M119"/>
     <mergeCell ref="A124:M124"/>
     <mergeCell ref="A93:M93"/>
@@ -4822,37 +4849,18 @@
     <mergeCell ref="A116:M116"/>
     <mergeCell ref="A117:M117"/>
     <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A132:M132"/>
-    <mergeCell ref="A133:M133"/>
-    <mergeCell ref="A134:M134"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="A94:M94"/>
-    <mergeCell ref="A99:M99"/>
-    <mergeCell ref="A105:M105"/>
-    <mergeCell ref="A106:M106"/>
-    <mergeCell ref="A100:M100"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A125:M125"/>
-    <mergeCell ref="A127:M127"/>
-    <mergeCell ref="A126:M126"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A89:M89"/>
-    <mergeCell ref="A74:M74"/>
-    <mergeCell ref="A79:M79"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <dataValidations count="59">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{00000000-0002-0000-0000-000000000000}">
